--- a/assets/disciplinas/LOB1233.xlsx
+++ b/assets/disciplinas/LOB1233.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EA-7</t>
+    <t>EA-9</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOB1233.xlsx
+++ b/assets/disciplinas/LOB1233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar ao discente conhecimentos básicos para planejamento e manejo de recursos hídricos considerando a bacia hidrográfica como unidade de estudo e planejamento; propiciar o desenvolvimento de assuntos associados ao tema, considerando a inserção de cada um deles no estudo da caracterização ambiental e definição das suscetibilidades e vocações da bacia hidrográfica.</t>
+    <t>9146830 - Danúbia Caporusso Bargos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>9146830 - Danúbia Caporusso Bargos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Formas de representação e apresentação das características ambientais; Caracterização ambiental e sua aplicação em uma bacia hidrográfica; Determinação das suscetibilidades e vocações do meio ambiente e o conceito de sustentabilidade ambiental.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Bacia hidrográfica como unidade de estudo e gestão de recursos hídricos; caracterização ambiental de bacias hidrográficas; Caracterização morfométrica de bacias hidrográficas; Regiões Hidrográficas do Brasil; Estrutura institucional e marcos legais em recursos hídricos no Brasil.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Provas e/ou exercícios dirigidos.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia básica:BARTH, F.T. et al. “Modelos para Gerenciamento de Recursos Hídricos”, Nobel/ABRH, 1987.BROOKS, K.N., FFOLLIOTT, P.F., GREGERSEN, H.M., DEBANO, L.F. “Hydrology and the Management of Watersheds”, Iowa State University Press, 2003.CALIJURI, M.C.; CUNHA, D.G.F. Engenharia Ambiental. Conceitos, Tecnologia e Gestão. Rio de Janeiro, Elsevier, 2013.COLLISCHONN, W. E DORNELLES, F. “Hidrologia para Engenharia e Ciências Ambientais”, 1. ed. Porto Alegre: ABRH, 2013. LINSLEY, R.K. E FRANZINI, J.B. “Engenharia de Recursos Hídricos”,.EDUSP, 1978.MENDIONDO, E.M. Novas técnicas de percepção ambiental na bacia hidrográfica para o ensino das engenharias, In: KURI, N. P.; SILVA, A. N. R. (org.). O ensino no campus USP de São Carlos: inovações e inovadores. São Carlos: CETEPE, 2006.POLETO, C. Bacias hidrográficas e recursos hídricos. Rio de Janeiro: Interciência, 2014.PORTO, R.L.L. “Hidrologia Ambiental”, EDUSP/ABRH, 1991.PORTO, R.L. et al. “Técnicas Quantitativas para o Gerenciamento de Recursos Hídricos”, UFRGS/ABRH, 1998.RIGHETTO, A.R. “Hidrologia e Recursos Hídricos”, São Carlos, EESC-USP/ABRH, 1998.Tucci, C.E.M. “Hidrologia: Ciência e Aplicação”, UFRGS/ABRH/EPUSP, 1993.SILVA, L.P. Hidrologia. Engenharia e Meio Ambiente. Rio de Janeiro, Elsevier, 2015.Bibliografia complementar:BAIRD, A.J., WILBY, R.L. “Eco-Hydrology: Plants and water in terrestrial and aquatic environmentS”, ROUTLEDGE, 2007.Brutsaert, W. “Hydrology: An Introduction”, Cambridge University Press, 618 p, ISBN 0521824796, 2005.PINTO, N.L.S. et al. “Hidrologia Básica”, Edgard Blucher, 1976.TUCCI, C.E.M., PORTO, R.L.L. E BARROS, M.T. “Drenagem Urbana”, Porto Alegre, UFRGS/ABRH, 1995.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1233.xlsx
+++ b/assets/disciplinas/LOB1233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar ao discente conhecimentos básicos para planejamento e manejo de recursos hídricos considerando a bacia hidrográfica como unidade de estudo e planejamento; propiciar o desenvolvimento de assuntos associados ao tema, considerando a inserção de cada um deles no estudo da caracterização ambiental e definição das suscetibilidades e vocações da bacia hidrográfica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Providing basic knowledge for planning and management of water resources considering the watershed as a unit of study and planning; Providing the development theme related to planning, considering each of them on environmental characterization studies and definition of watershed susceptibilities and vocations.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>9146830 - Danúbia Caporusso Bargos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Providing basic knowledge for planning and management of water resources considering the watershed as a unit of study and planning; Providing the development theme related to planning, considering each of them on environmental characterization studies and definition of watershed susceptibilities and vocations.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Formas de representação e apresentação das características ambientais; Caracterização ambiental e sua aplicação em uma bacia hidrográfica; Determinação das suscetibilidades e vocações do meio ambiente e o conceito de sustentabilidade ambiental.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Bacia hidrográfica como unidade de estudo e gestão de recursos hídricos; caracterização ambiental de bacias hidrográficas; Caracterização morfométrica de bacias hidrográficas; Regiões Hidrográficas do Brasil; Estrutura institucional e marcos legais em recursos hídricos no Brasil.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Provas e/ou exercícios dirigidos.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Provas e/ou exercícios dirigidos.</t>
+    <t>Bibliografia básica:BARTH, F.T. et al. “Modelos para Gerenciamento de Recursos Hídricos”, Nobel/ABRH, 1987.BROOKS, K.N., FFOLLIOTT, P.F., GREGERSEN, H.M., DEBANO, L.F. “Hydrology and the Management of Watersheds”, Iowa State University Press, 2003.CALIJURI, M.C.; CUNHA, D.G.F. Engenharia Ambiental. Conceitos, Tecnologia e Gestão. Rio de Janeiro, Elsevier, 2013.COLLISCHONN, W. E DORNELLES, F. “Hidrologia para Engenharia e Ciências Ambientais”, 1. ed. Porto Alegre: ABRH, 2013. LINSLEY, R.K. E FRANZINI, J.B. “Engenharia de Recursos Hídricos”,.EDUSP, 1978.MENDIONDO, E.M. Novas técnicas de percepção ambiental na bacia hidrográfica para o ensino das engenharias, In: KURI, N. P.; SILVA, A. N. R. (org.). O ensino no campus USP de São Carlos: inovações e inovadores. São Carlos: CETEPE, 2006.POLETO, C. Bacias hidrográficas e recursos hídricos. Rio de Janeiro: Interciência, 2014.PORTO, R.L.L. “Hidrologia Ambiental”, EDUSP/ABRH, 1991.PORTO, R.L. et al. “Técnicas Quantitativas para o Gerenciamento de Recursos Hídricos”, UFRGS/ABRH, 1998.RIGHETTO, A.R. “Hidrologia e Recursos Hídricos”, São Carlos, EESC-USP/ABRH, 1998.Tucci, C.E.M. “Hidrologia: Ciência e Aplicação”, UFRGS/ABRH/EPUSP, 1993.SILVA, L.P. Hidrologia. Engenharia e Meio Ambiente. Rio de Janeiro, Elsevier, 2015.Bibliografia complementar:BAIRD, A.J., WILBY, R.L. “Eco-Hydrology: Plants and water in terrestrial and aquatic environmentS”, ROUTLEDGE, 2007.Brutsaert, W. “Hydrology: An Introduction”, Cambridge University Press, 618 p, ISBN 0521824796, 2005.PINTO, N.L.S. et al. “Hidrologia Básica”, Edgard Blucher, 1976.TUCCI, C.E.M., PORTO, R.L.L. E BARROS, M.T. “Drenagem Urbana”, Porto Alegre, UFRGS/ABRH, 1995.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
